--- a/artfynd/A 13021-2022.xlsx
+++ b/artfynd/A 13021-2022.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY24"/>
+  <dimension ref="A1:AY28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3589,6 +3589,477 @@
       </c>
       <c r="AY24" t="inlineStr"/>
     </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>112306136</v>
+      </c>
+      <c r="B25" t="n">
+        <v>90818</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>4368</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Dofttaggsvamp</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Hydnellum suaveolens</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>(Scop.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Bässe söder om stigen, Hls</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>599416</v>
+      </c>
+      <c r="R25" t="n">
+        <v>6820643</v>
+      </c>
+      <c r="S25" t="n">
+        <v>10</v>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>Hudiksvall</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>Hälsingland</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Enånger</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>Förekommer på flera platser</t>
+        </is>
+      </c>
+      <c r="AD25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF25" t="inlineStr"/>
+      <c r="AG25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH25" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI25" t="inlineStr">
+        <is>
+          <t>Barrblandskog kalkpåverkad.</t>
+        </is>
+      </c>
+      <c r="AT25" t="inlineStr"/>
+      <c r="AW25" t="inlineStr">
+        <is>
+          <t>Alf Bjarne Roland Pallin</t>
+        </is>
+      </c>
+      <c r="AX25" t="inlineStr">
+        <is>
+          <t>Alf Bjarne Roland Pallin</t>
+        </is>
+      </c>
+      <c r="AY25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>112306179</v>
+      </c>
+      <c r="B26" t="n">
+        <v>89100</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>5754</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Gultoppig fingersvamp</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Ramaria testaceoflava</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>(Bres.) Corner</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Storåsens sydsluttning  söder om myren, Hls</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>599447</v>
+      </c>
+      <c r="R26" t="n">
+        <v>6820628</v>
+      </c>
+      <c r="S26" t="n">
+        <v>10</v>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>Hudiksvall</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>Hälsingland</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>Enånger</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>Där stigen delar sig ned mot myren</t>
+        </is>
+      </c>
+      <c r="AD26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF26" t="inlineStr"/>
+      <c r="AG26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH26" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI26" t="inlineStr">
+        <is>
+          <t>Barrblandskog kalkpåverkad.</t>
+        </is>
+      </c>
+      <c r="AT26" t="inlineStr"/>
+      <c r="AW26" t="inlineStr">
+        <is>
+          <t>Alf Bjarne Roland Pallin</t>
+        </is>
+      </c>
+      <c r="AX26" t="inlineStr">
+        <is>
+          <t>Alf Bjarne Roland Pallin</t>
+        </is>
+      </c>
+      <c r="AY26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>112306159</v>
+      </c>
+      <c r="B27" t="n">
+        <v>90796</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>4363</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Zontaggsvamp</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Hydnellum concrescens</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>(Pers.) Banker</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Storåsens sydsluttning  söder om myren, Hls</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>599447</v>
+      </c>
+      <c r="R27" t="n">
+        <v>6820628</v>
+      </c>
+      <c r="S27" t="n">
+        <v>10</v>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>Hudiksvall</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Hälsingland</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>Enånger</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>Efter stigen i början nära vändplatsen</t>
+        </is>
+      </c>
+      <c r="AD27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF27" t="inlineStr"/>
+      <c r="AG27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT27" t="inlineStr"/>
+      <c r="AW27" t="inlineStr">
+        <is>
+          <t>Alf Bjarne Roland Pallin</t>
+        </is>
+      </c>
+      <c r="AX27" t="inlineStr">
+        <is>
+          <t>Alf Bjarne Roland Pallin</t>
+        </is>
+      </c>
+      <c r="AY27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>112306119</v>
+      </c>
+      <c r="B28" t="n">
+        <v>90812</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>4366</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Skarp dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Hydnellum peckii</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Bässe söder om stigen, Hls</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>599416</v>
+      </c>
+      <c r="R28" t="n">
+        <v>6820643</v>
+      </c>
+      <c r="S28" t="n">
+        <v>10</v>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Hudiksvall</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Hälsingland</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>Enånger</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="AD28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF28" t="inlineStr"/>
+      <c r="AG28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT28" t="inlineStr"/>
+      <c r="AW28" t="inlineStr">
+        <is>
+          <t>Alf Bjarne Roland Pallin</t>
+        </is>
+      </c>
+      <c r="AX28" t="inlineStr">
+        <is>
+          <t>Alf Bjarne Roland Pallin</t>
+        </is>
+      </c>
+      <c r="AY28" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 13021-2022.xlsx
+++ b/artfynd/A 13021-2022.xlsx
@@ -3591,10 +3591,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112306136</v>
+        <v>112306119</v>
       </c>
       <c r="B25" t="n">
-        <v>90818</v>
+        <v>90826</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3603,25 +3603,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>4368</v>
+        <v>4366</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Hydnellum suaveolens</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) P. Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3676,11 +3676,6 @@
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>Förekommer på flera platser</t>
-        </is>
-      </c>
       <c r="AD25" t="b">
         <v>0</v>
       </c>
@@ -3690,16 +3685,6 @@
       <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
-      </c>
-      <c r="AH25" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
-      </c>
-      <c r="AI25" t="inlineStr">
-        <is>
-          <t>Barrblandskog kalkpåverkad.</t>
-        </is>
       </c>
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
@@ -3716,10 +3701,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112306179</v>
+        <v>112306159</v>
       </c>
       <c r="B26" t="n">
-        <v>89100</v>
+        <v>90810</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3728,33 +3713,29 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>5754</v>
+        <v>4363</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Zontaggsvamp</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Hydnellum concrescens</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Pers.) Banker</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
@@ -3803,7 +3784,7 @@
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>Där stigen delar sig ned mot myren</t>
+          <t>Efter stigen i början nära vändplatsen</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3815,16 +3796,6 @@
       <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
-      </c>
-      <c r="AH26" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
-      </c>
-      <c r="AI26" t="inlineStr">
-        <is>
-          <t>Barrblandskog kalkpåverkad.</t>
-        </is>
       </c>
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
@@ -3841,10 +3812,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112306159</v>
+        <v>112306179</v>
       </c>
       <c r="B27" t="n">
-        <v>90796</v>
+        <v>89114</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3853,29 +3824,33 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>4363</v>
+        <v>5754</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Zontaggsvamp</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Hydnellum concrescens</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Pers.) Banker</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
@@ -3924,7 +3899,7 @@
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>Efter stigen i början nära vändplatsen</t>
+          <t>Där stigen delar sig ned mot myren</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3936,6 +3911,16 @@
       <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="b">
         <v>0</v>
+      </c>
+      <c r="AH27" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI27" t="inlineStr">
+        <is>
+          <t>Barrblandskog kalkpåverkad.</t>
+        </is>
       </c>
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
@@ -3952,10 +3937,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112306119</v>
+        <v>112306136</v>
       </c>
       <c r="B28" t="n">
-        <v>90812</v>
+        <v>90832</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3964,25 +3949,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>4366</v>
+        <v>4368</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum suaveolens</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Scop.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -4037,6 +4022,11 @@
           <t>2023-09-18</t>
         </is>
       </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>Förekommer på flera platser</t>
+        </is>
+      </c>
       <c r="AD28" t="b">
         <v>0</v>
       </c>
@@ -4046,6 +4036,16 @@
       <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="b">
         <v>0</v>
+      </c>
+      <c r="AH28" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI28" t="inlineStr">
+        <is>
+          <t>Barrblandskog kalkpåverkad.</t>
+        </is>
       </c>
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">

--- a/artfynd/A 13021-2022.xlsx
+++ b/artfynd/A 13021-2022.xlsx
@@ -3591,10 +3591,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112306119</v>
+        <v>112306179</v>
       </c>
       <c r="B25" t="n">
-        <v>90826</v>
+        <v>89114</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3603,25 +3603,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>4366</v>
+        <v>5754</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3634,14 +3634,14 @@
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Bässe söder om stigen, Hls</t>
+          <t>Storåsens sydsluttning  söder om myren, Hls</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>599416</v>
+        <v>599447</v>
       </c>
       <c r="R25" t="n">
-        <v>6820643</v>
+        <v>6820628</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3676,6 +3676,11 @@
           <t>2023-09-18</t>
         </is>
       </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>Där stigen delar sig ned mot myren</t>
+        </is>
+      </c>
       <c r="AD25" t="b">
         <v>0</v>
       </c>
@@ -3685,6 +3690,16 @@
       <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
+      </c>
+      <c r="AH25" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI25" t="inlineStr">
+        <is>
+          <t>Barrblandskog kalkpåverkad.</t>
+        </is>
       </c>
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
@@ -3812,10 +3827,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112306179</v>
+        <v>112306136</v>
       </c>
       <c r="B27" t="n">
-        <v>89114</v>
+        <v>90832</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3828,21 +3843,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>5754</v>
+        <v>4368</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Hydnellum suaveolens</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Scop.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3855,14 +3870,14 @@
       <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Storåsens sydsluttning  söder om myren, Hls</t>
+          <t>Bässe söder om stigen, Hls</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>599447</v>
+        <v>599416</v>
       </c>
       <c r="R27" t="n">
-        <v>6820628</v>
+        <v>6820643</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3899,7 +3914,7 @@
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>Där stigen delar sig ned mot myren</t>
+          <t>Förekommer på flera platser</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3937,10 +3952,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112306136</v>
+        <v>112306119</v>
       </c>
       <c r="B28" t="n">
-        <v>90832</v>
+        <v>90826</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3949,25 +3964,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>4368</v>
+        <v>4366</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Hydnellum suaveolens</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) P. Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -4022,11 +4037,6 @@
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="AC28" t="inlineStr">
-        <is>
-          <t>Förekommer på flera platser</t>
-        </is>
-      </c>
       <c r="AD28" t="b">
         <v>0</v>
       </c>
@@ -4036,16 +4046,6 @@
       <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="b">
         <v>0</v>
-      </c>
-      <c r="AH28" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
-      </c>
-      <c r="AI28" t="inlineStr">
-        <is>
-          <t>Barrblandskog kalkpåverkad.</t>
-        </is>
       </c>
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">

--- a/artfynd/A 13021-2022.xlsx
+++ b/artfynd/A 13021-2022.xlsx
@@ -3827,10 +3827,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112306136</v>
+        <v>112306119</v>
       </c>
       <c r="B27" t="n">
-        <v>90832</v>
+        <v>90826</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3839,25 +3839,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>4368</v>
+        <v>4366</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Hydnellum suaveolens</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) P. Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3912,11 +3912,6 @@
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>Förekommer på flera platser</t>
-        </is>
-      </c>
       <c r="AD27" t="b">
         <v>0</v>
       </c>
@@ -3926,16 +3921,6 @@
       <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="b">
         <v>0</v>
-      </c>
-      <c r="AH27" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
-      </c>
-      <c r="AI27" t="inlineStr">
-        <is>
-          <t>Barrblandskog kalkpåverkad.</t>
-        </is>
       </c>
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
@@ -3952,10 +3937,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112306119</v>
+        <v>112306136</v>
       </c>
       <c r="B28" t="n">
-        <v>90826</v>
+        <v>90832</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3964,25 +3949,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>4366</v>
+        <v>4368</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum suaveolens</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Scop.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -4037,6 +4022,11 @@
           <t>2023-09-18</t>
         </is>
       </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>Förekommer på flera platser</t>
+        </is>
+      </c>
       <c r="AD28" t="b">
         <v>0</v>
       </c>
@@ -4046,6 +4036,16 @@
       <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="b">
         <v>0</v>
+      </c>
+      <c r="AH28" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI28" t="inlineStr">
+        <is>
+          <t>Barrblandskog kalkpåverkad.</t>
+        </is>
       </c>
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
